--- a/upload/ShanevanHeezik.xls.xlsx
+++ b/upload/ShanevanHeezik.xls.xlsx
@@ -443,7 +443,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -6249,7 +6249,7 @@
       <c r="D398" t="inlineStr"/>
       <c r="E398" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -6309,7 +6309,7 @@
       <c r="D402" t="inlineStr"/>
       <c r="E402" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>70%</t>
         </is>
       </c>
     </row>
@@ -6324,7 +6324,7 @@
       <c r="D403" t="inlineStr"/>
       <c r="E403" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>70%</t>
         </is>
       </c>
     </row>
@@ -6339,7 +6339,7 @@
       <c r="D404" t="inlineStr"/>
       <c r="E404" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>70%</t>
         </is>
       </c>
     </row>
